--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho_2024/XuatKho/Thang09/XKSX_LK_2000RFID_140924.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho_2024/XuatKho/Thang09/XKSX_LK_2000RFID_140924.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BH VNET\VNET NEW\VNET\2. Báo cáo-Bàn giao\1.BaoCao\Thông tin lưu trữ\SanXuat\XuatNhapKho_2024\XuatKho\Thang09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F4F0A0-6CDD-41B9-A0E4-481284925C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9EC3D8-AFD6-4075-93E0-C59D2657D1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1380,6 +1380,15 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1757,15 +1766,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2722,57 +2722,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70" t="s">
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="76" t="s">
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="76"/>
+      <c r="M2" s="79"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="76" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="76"/>
+      <c r="M3" s="79"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="76" t="s">
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="76"/>
+      <c r="M4" s="79"/>
     </row>
     <row r="5" spans="1:13" s="47" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
@@ -2799,29 +2799,29 @@
       <c r="A8" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
       <c r="E8" s="22" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="78" t="s">
+      <c r="G8" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78" t="s">
+      <c r="H8" s="81"/>
+      <c r="I8" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78" t="s">
+      <c r="J8" s="81"/>
+      <c r="K8" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="L8" s="78"/>
+      <c r="L8" s="81"/>
       <c r="M8" s="22" t="s">
         <v>4</v>
       </c>
@@ -2830,86 +2830,86 @@
       <c r="A9" s="55">
         <v>1</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="88"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="91"/>
       <c r="E9" s="53" t="s">
         <v>93</v>
       </c>
       <c r="F9" s="53">
         <v>985</v>
       </c>
-      <c r="G9" s="84"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="83" t="s">
+      <c r="G9" s="87"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="L9" s="83"/>
+      <c r="L9" s="86"/>
       <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="55">
         <v>2</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="89" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="88"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="91"/>
       <c r="E10" s="53" t="s">
         <v>93</v>
       </c>
       <c r="F10" s="53">
         <v>985</v>
       </c>
-      <c r="G10" s="84"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="83" t="s">
+      <c r="G10" s="87"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="83"/>
+      <c r="L10" s="86"/>
       <c r="M10" s="22"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="55">
         <v>3</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="81"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="84"/>
       <c r="E11" s="53" t="s">
         <v>93</v>
       </c>
       <c r="F11" s="53">
         <v>985</v>
       </c>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="83" t="s">
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="L11" s="83"/>
+      <c r="L11" s="86"/>
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="55">
         <v>4</v>
       </c>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
       <c r="E12" s="53" t="s">
         <v>93</v>
       </c>
@@ -2917,58 +2917,58 @@
         <f>985*2</f>
         <v>1970</v>
       </c>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="83" t="s">
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="L12" s="83"/>
+      <c r="L12" s="86"/>
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="90" t="s">
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="90" t="s">
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="92"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="95"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="94"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="93" t="s">
+      <c r="B15" s="97"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="93" t="s">
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="95"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="98"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
@@ -3003,25 +3003,25 @@
       <c r="M19" s="7"/>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="96" t="s">
+      <c r="B20" s="100"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="96" t="s">
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="97"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="98"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="101"/>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3102,51 +3102,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70" t="s">
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="76" t="s">
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="76"/>
+      <c r="K2" s="79"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="76"/>
+      <c r="K3" s="79"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="76" t="s">
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="76"/>
+      <c r="K4" s="79"/>
     </row>
     <row r="5" spans="1:11" s="47" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
@@ -3173,23 +3173,23 @@
       <c r="A8" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
       <c r="E8" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="84" t="s">
+      <c r="F8" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="85"/>
-      <c r="H8" s="84" t="s">
+      <c r="G8" s="88"/>
+      <c r="H8" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="102"/>
-      <c r="J8" s="85"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="88"/>
       <c r="K8" s="22" t="s">
         <v>4</v>
       </c>
@@ -3198,46 +3198,46 @@
       <c r="A9" s="55">
         <v>1</v>
       </c>
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="102" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="101"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="104"/>
       <c r="E9" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="99">
+      <c r="F9" s="102">
         <v>6</v>
       </c>
-      <c r="G9" s="101"/>
-      <c r="H9" s="99" t="s">
+      <c r="G9" s="104"/>
+      <c r="H9" s="102" t="s">
         <v>113</v>
       </c>
-      <c r="I9" s="100"/>
-      <c r="J9" s="101"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="104"/>
       <c r="K9" s="55"/>
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="55">
         <v>2</v>
       </c>
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="100"/>
-      <c r="D10" s="101"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="104"/>
       <c r="E10" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="99">
+      <c r="F10" s="102">
         <v>4</v>
       </c>
-      <c r="G10" s="101"/>
-      <c r="H10" s="99" t="s">
+      <c r="G10" s="104"/>
+      <c r="H10" s="102" t="s">
         <v>113</v>
       </c>
-      <c r="I10" s="100"/>
-      <c r="J10" s="101"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="104"/>
       <c r="K10" s="55" t="s">
         <v>117</v>
       </c>
@@ -3246,65 +3246,65 @@
       <c r="A11" s="55">
         <v>3</v>
       </c>
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="102" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="100"/>
-      <c r="D11" s="101"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
       <c r="E11" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="99">
+      <c r="F11" s="102">
         <v>2</v>
       </c>
-      <c r="G11" s="101"/>
-      <c r="H11" s="99" t="s">
+      <c r="G11" s="104"/>
+      <c r="H11" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="I11" s="100"/>
-      <c r="J11" s="101"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="104"/>
       <c r="K11" s="55" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="90" t="s">
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="92"/>
-      <c r="H13" s="90" t="s">
+      <c r="G13" s="95"/>
+      <c r="H13" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="92"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="95"/>
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="93" t="s">
+      <c r="B14" s="97"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="95"/>
-      <c r="H14" s="93" t="s">
+      <c r="G14" s="98"/>
+      <c r="H14" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="95"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="98"/>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
@@ -3339,23 +3339,23 @@
       <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="96" t="s">
+      <c r="A19" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="97"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="96" t="s">
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="98"/>
-      <c r="H19" s="96" t="s">
+      <c r="G19" s="101"/>
+      <c r="H19" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="97"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="98"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="101"/>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3408,8 +3408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:T66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3427,42 +3427,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="108" t="s">
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="111" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="116" t="s">
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="116"/>
+      <c r="H2" s="119"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="114"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="116" t="s">
+      <c r="A3" s="117"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="116"/>
+      <c r="H3" s="119"/>
     </row>
     <row r="4" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="114"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="116" t="s">
+      <c r="A4" s="117"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="116"/>
+      <c r="H4" s="119"/>
     </row>
     <row r="5" spans="1:19" s="47" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
@@ -3486,11 +3486,11 @@
         <v>168</v>
       </c>
       <c r="E6" s="60"/>
-      <c r="F6" s="117" t="s">
+      <c r="F6" s="120" t="s">
         <v>140</v>
       </c>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
     </row>
     <row r="7" spans="1:19" s="47" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="s">
@@ -3534,13 +3534,13 @@
       <c r="A9" s="63">
         <v>1</v>
       </c>
-      <c r="B9" s="195" t="s">
+      <c r="B9" s="69" t="s">
         <v>141</v>
       </c>
       <c r="C9" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="196">
+      <c r="D9" s="70">
         <v>2000</v>
       </c>
       <c r="E9" s="67">
@@ -3550,7 +3550,7 @@
         <f>D9+E9</f>
         <v>4000</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="123" t="s">
         <v>138</v>
       </c>
       <c r="H9" s="63" t="s">
@@ -3561,13 +3561,13 @@
       <c r="A10" s="63">
         <v>2</v>
       </c>
-      <c r="B10" s="195" t="s">
+      <c r="B10" s="69" t="s">
         <v>124</v>
       </c>
       <c r="C10" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="196">
+      <c r="D10" s="70">
         <v>4000</v>
       </c>
       <c r="E10" s="67">
@@ -3577,20 +3577,20 @@
         <f t="shared" ref="F10:F42" si="0">D10+E10</f>
         <v>4000</v>
       </c>
-      <c r="G10" s="121"/>
+      <c r="G10" s="124"/>
       <c r="H10" s="63"/>
     </row>
     <row r="11" spans="1:19" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="63">
         <v>3</v>
       </c>
-      <c r="B11" s="195" t="s">
+      <c r="B11" s="69" t="s">
         <v>142</v>
       </c>
       <c r="C11" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="196">
+      <c r="D11" s="70">
         <v>2000</v>
       </c>
       <c r="E11" s="67">
@@ -3610,13 +3610,13 @@
       <c r="A12" s="63">
         <v>4</v>
       </c>
-      <c r="B12" s="195" t="s">
+      <c r="B12" s="69" t="s">
         <v>143</v>
       </c>
       <c r="C12" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="196">
+      <c r="D12" s="70">
         <v>8000</v>
       </c>
       <c r="E12" s="67">
@@ -3633,13 +3633,13 @@
       <c r="A13" s="63">
         <v>5</v>
       </c>
-      <c r="B13" s="195" t="s">
+      <c r="B13" s="69" t="s">
         <v>144</v>
       </c>
       <c r="C13" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="196">
+      <c r="D13" s="70">
         <v>4000</v>
       </c>
       <c r="E13" s="67">
@@ -3656,13 +3656,13 @@
       <c r="A14" s="63">
         <v>6</v>
       </c>
-      <c r="B14" s="195" t="s">
+      <c r="B14" s="69" t="s">
         <v>145</v>
       </c>
       <c r="C14" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="196">
+      <c r="D14" s="70">
         <v>2000</v>
       </c>
       <c r="E14" s="67">
@@ -3679,13 +3679,13 @@
       <c r="A15" s="63">
         <v>7</v>
       </c>
-      <c r="B15" s="195" t="s">
+      <c r="B15" s="69" t="s">
         <v>146</v>
       </c>
       <c r="C15" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="196">
+      <c r="D15" s="70">
         <v>22000</v>
       </c>
       <c r="E15" s="67">
@@ -3702,13 +3702,13 @@
       <c r="A16" s="63">
         <v>8</v>
       </c>
-      <c r="B16" s="195" t="s">
+      <c r="B16" s="69" t="s">
         <v>133</v>
       </c>
       <c r="C16" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="196">
+      <c r="D16" s="70">
         <v>2000</v>
       </c>
       <c r="E16" s="67">
@@ -3731,7 +3731,7 @@
       <c r="C17" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="196">
+      <c r="D17" s="70">
         <v>2000</v>
       </c>
       <c r="E17" s="67">
@@ -3754,7 +3754,7 @@
       <c r="C18" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="196">
+      <c r="D18" s="70">
         <v>4000</v>
       </c>
       <c r="E18" s="67">
@@ -3771,13 +3771,13 @@
       <c r="A19" s="63">
         <v>11</v>
       </c>
-      <c r="B19" s="195" t="s">
+      <c r="B19" s="69" t="s">
         <v>148</v>
       </c>
       <c r="C19" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="196">
+      <c r="D19" s="70">
         <v>2000</v>
       </c>
       <c r="E19" s="67">
@@ -3794,13 +3794,13 @@
       <c r="A20" s="63">
         <v>12</v>
       </c>
-      <c r="B20" s="195" t="s">
+      <c r="B20" s="69" t="s">
         <v>149</v>
       </c>
       <c r="C20" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="196">
+      <c r="D20" s="70">
         <v>2000</v>
       </c>
       <c r="E20" s="67">
@@ -3817,13 +3817,13 @@
       <c r="A21" s="63">
         <v>13</v>
       </c>
-      <c r="B21" s="195" t="s">
+      <c r="B21" s="69" t="s">
         <v>150</v>
       </c>
       <c r="C21" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="196">
+      <c r="D21" s="70">
         <v>2000</v>
       </c>
       <c r="E21" s="67">
@@ -3846,7 +3846,7 @@
       <c r="C22" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="196">
+      <c r="D22" s="70">
         <v>2000</v>
       </c>
       <c r="E22" s="67">
@@ -3863,13 +3863,13 @@
       <c r="A23" s="63">
         <v>15</v>
       </c>
-      <c r="B23" s="195" t="s">
+      <c r="B23" s="69" t="s">
         <v>151</v>
       </c>
       <c r="C23" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="196">
+      <c r="D23" s="70">
         <v>2000</v>
       </c>
       <c r="E23" s="67">
@@ -3886,13 +3886,13 @@
       <c r="A24" s="63">
         <v>16</v>
       </c>
-      <c r="B24" s="195" t="s">
+      <c r="B24" s="69" t="s">
         <v>134</v>
       </c>
       <c r="C24" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="196">
+      <c r="D24" s="70">
         <v>2000</v>
       </c>
       <c r="E24" s="67">
@@ -3909,13 +3909,13 @@
       <c r="A25" s="63">
         <v>17</v>
       </c>
-      <c r="B25" s="195" t="s">
+      <c r="B25" s="69" t="s">
         <v>152</v>
       </c>
       <c r="C25" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="196">
+      <c r="D25" s="70">
         <v>4000</v>
       </c>
       <c r="E25" s="67">
@@ -3932,13 +3932,13 @@
       <c r="A26" s="63">
         <v>18</v>
       </c>
-      <c r="B26" s="195" t="s">
+      <c r="B26" s="69" t="s">
         <v>153</v>
       </c>
       <c r="C26" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="196">
+      <c r="D26" s="70">
         <v>12000</v>
       </c>
       <c r="E26" s="67">
@@ -3955,13 +3955,13 @@
       <c r="A27" s="63">
         <v>19</v>
       </c>
-      <c r="B27" s="195" t="s">
+      <c r="B27" s="69" t="s">
         <v>154</v>
       </c>
       <c r="C27" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="196">
+      <c r="D27" s="70">
         <v>6000</v>
       </c>
       <c r="E27" s="67">
@@ -3978,21 +3978,21 @@
       <c r="A28" s="63">
         <v>20</v>
       </c>
-      <c r="B28" s="195" t="s">
+      <c r="B28" s="69" t="s">
         <v>127</v>
       </c>
       <c r="C28" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="196">
+      <c r="D28" s="70">
         <v>8000</v>
       </c>
       <c r="E28" s="67">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="F28" s="65">
         <f t="shared" si="0"/>
-        <v>8241</v>
+        <v>8000</v>
       </c>
       <c r="G28" s="66"/>
       <c r="H28" s="61"/>
@@ -4001,13 +4001,13 @@
       <c r="A29" s="63">
         <v>21</v>
       </c>
-      <c r="B29" s="195" t="s">
+      <c r="B29" s="69" t="s">
         <v>136</v>
       </c>
       <c r="C29" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="196">
+      <c r="D29" s="70">
         <v>2000</v>
       </c>
       <c r="E29" s="67">
@@ -4024,13 +4024,13 @@
       <c r="A30" s="63">
         <v>22</v>
       </c>
-      <c r="B30" s="195" t="s">
+      <c r="B30" s="69" t="s">
         <v>155</v>
       </c>
       <c r="C30" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="196">
+      <c r="D30" s="70">
         <v>2000</v>
       </c>
       <c r="E30" s="67">
@@ -4047,13 +4047,13 @@
       <c r="A31" s="63">
         <v>23</v>
       </c>
-      <c r="B31" s="195" t="s">
+      <c r="B31" s="69" t="s">
         <v>156</v>
       </c>
       <c r="C31" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="196">
+      <c r="D31" s="70">
         <v>2000</v>
       </c>
       <c r="E31" s="67">
@@ -4073,21 +4073,21 @@
       <c r="A32" s="63">
         <v>24</v>
       </c>
-      <c r="B32" s="195" t="s">
+      <c r="B32" s="69" t="s">
         <v>157</v>
       </c>
       <c r="C32" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="196">
+      <c r="D32" s="70">
         <v>2000</v>
       </c>
       <c r="E32" s="67">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="F32" s="65">
         <f t="shared" si="0"/>
-        <v>2231</v>
+        <v>2000</v>
       </c>
       <c r="G32" s="66"/>
       <c r="H32" s="61"/>
@@ -4096,13 +4096,13 @@
       <c r="A33" s="63">
         <v>25</v>
       </c>
-      <c r="B33" s="195" t="s">
+      <c r="B33" s="69" t="s">
         <v>158</v>
       </c>
       <c r="C33" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="196">
+      <c r="D33" s="70">
         <v>2000</v>
       </c>
       <c r="E33" s="67">
@@ -4119,13 +4119,13 @@
       <c r="A34" s="63">
         <v>26</v>
       </c>
-      <c r="B34" s="195" t="s">
+      <c r="B34" s="69" t="s">
         <v>159</v>
       </c>
       <c r="C34" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="196">
+      <c r="D34" s="70">
         <v>2000</v>
       </c>
       <c r="E34" s="67">
@@ -4142,13 +4142,13 @@
       <c r="A35" s="63">
         <v>27</v>
       </c>
-      <c r="B35" s="195" t="s">
+      <c r="B35" s="69" t="s">
         <v>126</v>
       </c>
       <c r="C35" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="196">
+      <c r="D35" s="70">
         <v>2000</v>
       </c>
       <c r="E35" s="67">
@@ -4165,13 +4165,13 @@
       <c r="A36" s="63">
         <v>28</v>
       </c>
-      <c r="B36" s="195" t="s">
+      <c r="B36" s="69" t="s">
         <v>160</v>
       </c>
       <c r="C36" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D36" s="196">
+      <c r="D36" s="70">
         <v>2000</v>
       </c>
       <c r="E36" s="67">
@@ -4194,7 +4194,7 @@
       <c r="C37" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="196">
+      <c r="D37" s="70">
         <v>2000</v>
       </c>
       <c r="E37" s="67">
@@ -4217,7 +4217,7 @@
       <c r="C38" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="196">
+      <c r="D38" s="70">
         <v>2000</v>
       </c>
       <c r="E38" s="67">
@@ -4234,13 +4234,13 @@
       <c r="A39" s="63">
         <v>31</v>
       </c>
-      <c r="B39" s="197" t="s">
+      <c r="B39" s="71" t="s">
         <v>163</v>
       </c>
       <c r="C39" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="196">
+      <c r="D39" s="70">
         <v>2000</v>
       </c>
       <c r="E39" s="67">
@@ -4257,13 +4257,13 @@
       <c r="A40" s="63">
         <v>32</v>
       </c>
-      <c r="B40" s="197" t="s">
+      <c r="B40" s="71" t="s">
         <v>164</v>
       </c>
       <c r="C40" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="196">
+      <c r="D40" s="70">
         <v>2000</v>
       </c>
       <c r="E40" s="67">
@@ -4280,16 +4280,16 @@
       <c r="A41" s="63">
         <v>33</v>
       </c>
-      <c r="B41" s="197" t="s">
+      <c r="B41" s="71" t="s">
         <v>137</v>
       </c>
       <c r="C41" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D41" s="196">
+      <c r="D41" s="70">
         <v>100</v>
       </c>
-      <c r="E41" s="196">
+      <c r="E41" s="70">
         <v>0</v>
       </c>
       <c r="F41" s="65">
@@ -4303,13 +4303,13 @@
       <c r="A42" s="63">
         <v>34</v>
       </c>
-      <c r="B42" s="197" t="s">
+      <c r="B42" s="71" t="s">
         <v>165</v>
       </c>
       <c r="C42" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="D42" s="196">
+      <c r="D42" s="70">
         <v>400</v>
       </c>
       <c r="E42" s="67">
@@ -4324,12 +4324,12 @@
     </row>
     <row r="43" spans="1:8" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="58"/>
-      <c r="B43" s="118"/>
-      <c r="C43" s="118"/>
-      <c r="D43" s="119"/>
-      <c r="E43" s="119"/>
-      <c r="F43" s="118"/>
-      <c r="G43" s="118"/>
+      <c r="B43" s="121"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="122"/>
+      <c r="E43" s="122"/>
+      <c r="F43" s="121"/>
+      <c r="G43" s="121"/>
       <c r="H43" s="51"/>
     </row>
     <row r="44" spans="1:8" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4344,8 +4344,8 @@
     </row>
     <row r="45" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A45" s="48"/>
-      <c r="B45" s="115"/>
-      <c r="C45" s="115"/>
+      <c r="B45" s="118"/>
+      <c r="C45" s="118"/>
       <c r="D45" s="48"/>
       <c r="E45" s="48"/>
       <c r="F45" s="48"/>
@@ -4353,37 +4353,37 @@
       <c r="H45" s="48"/>
     </row>
     <row r="46" spans="1:8" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="105" t="s">
+      <c r="A46" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="B46" s="105"/>
-      <c r="C46" s="105" t="s">
+      <c r="B46" s="108"/>
+      <c r="C46" s="108" t="s">
         <v>132</v>
       </c>
-      <c r="D46" s="105"/>
+      <c r="D46" s="108"/>
       <c r="E46" s="51"/>
-      <c r="F46" s="107" t="s">
+      <c r="F46" s="110" t="s">
         <v>78</v>
       </c>
-      <c r="G46" s="107"/>
+      <c r="G46" s="110"/>
       <c r="H46" s="51" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="106" t="s">
+      <c r="A47" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="106"/>
-      <c r="C47" s="106" t="s">
+      <c r="B47" s="109"/>
+      <c r="C47" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="106"/>
+      <c r="D47" s="109"/>
       <c r="E47" s="56"/>
-      <c r="F47" s="106" t="s">
+      <c r="F47" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="G47" s="106"/>
+      <c r="G47" s="109"/>
       <c r="H47" s="56" t="s">
         <v>6</v>
       </c>
@@ -4423,8 +4423,8 @@
       <c r="D51" s="56"/>
       <c r="E51" s="56"/>
       <c r="F51" s="50"/>
-      <c r="G51" s="106"/>
-      <c r="H51" s="106"/>
+      <c r="G51" s="109"/>
+      <c r="H51" s="109"/>
     </row>
     <row r="52" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A52" s="48"/>
@@ -4437,41 +4437,41 @@
       <c r="H52" s="48"/>
     </row>
     <row r="53" spans="1:8" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="106" t="s">
+      <c r="A53" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="B53" s="106"/>
-      <c r="C53" s="106" t="s">
+      <c r="B53" s="109"/>
+      <c r="C53" s="109" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="106"/>
+      <c r="D53" s="109"/>
       <c r="E53" s="56"/>
-      <c r="F53" s="106" t="s">
+      <c r="F53" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="G53" s="106"/>
+      <c r="G53" s="109"/>
       <c r="H53" s="56" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="55" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F55" s="104"/>
-      <c r="G55" s="104"/>
-      <c r="H55" s="104"/>
+      <c r="F55" s="107"/>
+      <c r="G55" s="107"/>
+      <c r="H55" s="107"/>
     </row>
     <row r="56" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="57" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="58" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="59" spans="1:8" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="C59" s="103" t="s">
+      <c r="C59" s="106" t="s">
         <v>109</v>
       </c>
-      <c r="D59" s="103"/>
-      <c r="E59" s="103"/>
-      <c r="F59" s="103"/>
-      <c r="G59" s="103"/>
-      <c r="H59" s="103"/>
+      <c r="D59" s="106"/>
+      <c r="E59" s="106"/>
+      <c r="F59" s="106"/>
+      <c r="G59" s="106"/>
+      <c r="H59" s="106"/>
     </row>
     <row r="60" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="61" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -4535,99 +4535,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131"/>
-      <c r="B1" s="132"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="122" t="s">
+      <c r="A1" s="134"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="125" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="123"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="76" t="s">
+      <c r="E1" s="126"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="76"/>
+      <c r="H1" s="79"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="134"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="76" t="s">
+      <c r="A2" s="137"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="76"/>
+      <c r="H2" s="79"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="136"/>
-      <c r="B3" s="137"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="76" t="s">
+      <c r="A3" s="139"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="76"/>
+      <c r="H3" s="79"/>
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="140" t="s">
+      <c r="A4" s="143" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82" t="s">
+      <c r="C5" s="85"/>
+      <c r="D5" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="82" t="s">
+      <c r="F5" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82" t="s">
+      <c r="G5" s="85"/>
+      <c r="H5" s="85" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="82"/>
+      <c r="H6" s="85"/>
     </row>
     <row r="7" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="53">
         <v>1</v>
       </c>
-      <c r="B7" s="143" t="s">
+      <c r="B7" s="146" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="144"/>
+      <c r="C7" s="147"/>
       <c r="D7" s="57" t="s">
         <v>121</v>
       </c>
@@ -4653,60 +4653,60 @@
       <c r="H8" s="54"/>
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="142" t="s">
+      <c r="A9" s="145" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="142"/>
-      <c r="C9" s="142" t="s">
+      <c r="B9" s="145"/>
+      <c r="C9" s="145" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142" t="s">
+      <c r="D9" s="145"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="145" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="142"/>
+      <c r="H9" s="145"/>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="141" t="s">
+      <c r="A10" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="141"/>
-      <c r="C10" s="141" t="s">
+      <c r="B10" s="144"/>
+      <c r="C10" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141" t="s">
+      <c r="D10" s="144"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="141"/>
+      <c r="H10" s="144"/>
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="139" t="s">
+      <c r="A15" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="139"/>
-      <c r="C15" s="139" t="s">
+      <c r="B15" s="142"/>
+      <c r="C15" s="142" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139" t="s">
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="139"/>
+      <c r="H15" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -4762,42 +4762,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="148" t="s">
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="149"/>
-      <c r="E2" s="150"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="153"/>
       <c r="F2" s="25" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="153"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="156"/>
       <c r="F3" s="25" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="154"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="156"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="159"/>
       <c r="F4" s="25" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="150" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="147"/>
+      <c r="B5" s="150"/>
       <c r="F5" s="20" t="s">
         <v>45</v>
       </c>
@@ -5036,32 +5036,32 @@
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
-      <c r="E37" s="157" t="s">
+      <c r="E37" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="157"/>
+      <c r="F37" s="160"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="145" t="s">
+      <c r="B38" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="145"/>
+      <c r="C38" s="148"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="145" t="s">
+      <c r="E38" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="145"/>
+      <c r="F38" s="148"/>
     </row>
     <row r="39" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="146" t="s">
+      <c r="B39" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="146"/>
+      <c r="C39" s="149"/>
       <c r="D39" s="16"/>
-      <c r="E39" s="146" t="s">
+      <c r="E39" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="146"/>
+      <c r="F39" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5105,78 +5105,78 @@
   <sheetData>
     <row r="1" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="161" t="s">
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="162" t="s">
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="165" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="163"/>
-      <c r="L2" s="164"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="167"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="162" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="165" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="163"/>
-      <c r="L3" s="164"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="167"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="162" t="s">
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="165" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="163"/>
-      <c r="L4" s="164"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="167"/>
     </row>
     <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="160" t="s">
+      <c r="A5" s="163" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="160"/>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160" t="s">
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="160"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="159"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="162"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
@@ -5268,58 +5268,58 @@
     </row>
     <row r="20" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="171" t="s">
+      <c r="A21" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="82" t="s">
+      <c r="C21" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="82" t="s">
+      <c r="D21" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="158" t="s">
+      <c r="E21" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="158" t="s">
+      <c r="F21" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158" t="s">
+      <c r="G21" s="161"/>
+      <c r="H21" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="158" t="s">
+      <c r="I21" s="161" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="158" t="s">
+      <c r="J21" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="166" t="s">
+      <c r="K21" s="169" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="165" t="s">
+      <c r="L21" s="168" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="171"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="158"/>
+      <c r="A22" s="174"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="161"/>
       <c r="F22" s="27" t="s">
         <v>39</v>
       </c>
       <c r="G22" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="158"/>
-      <c r="I22" s="158"/>
-      <c r="J22" s="158"/>
-      <c r="K22" s="167"/>
-      <c r="L22" s="77"/>
+      <c r="H22" s="161"/>
+      <c r="I22" s="161"/>
+      <c r="J22" s="161"/>
+      <c r="K22" s="170"/>
+      <c r="L22" s="80"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
@@ -5364,45 +5364,45 @@
       <c r="L25" s="19"/>
     </row>
     <row r="26" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="170" t="s">
+      <c r="D26" s="173" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="170"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="170"/>
+      <c r="E26" s="173"/>
+      <c r="F26" s="173"/>
+      <c r="G26" s="173"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="145" t="s">
+      <c r="A27" s="148" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="145"/>
-      <c r="C27" s="145"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="145" t="s">
+      <c r="B27" s="148"/>
+      <c r="C27" s="148"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="148" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="145"/>
-      <c r="H27" s="145" t="s">
+      <c r="F27" s="148"/>
+      <c r="H27" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="145"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
     </row>
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146" t="s">
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="146"/>
-      <c r="I28" s="146" t="s">
+      <c r="F28" s="149"/>
+      <c r="I28" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="146"/>
+      <c r="J28" s="149"/>
       <c r="K28" s="24"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5436,74 +5436,74 @@
       <c r="K31" s="24"/>
     </row>
     <row r="32" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="169" t="s">
+      <c r="B32" s="172" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="169"/>
-      <c r="D32" s="169"/>
-      <c r="E32" s="169"/>
-      <c r="F32" s="169"/>
-      <c r="G32" s="169"/>
-      <c r="H32" s="169"/>
-      <c r="I32" s="169"/>
-      <c r="J32" s="169"/>
-      <c r="K32" s="169"/>
+      <c r="C32" s="172"/>
+      <c r="D32" s="172"/>
+      <c r="E32" s="172"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="172"/>
+      <c r="H32" s="172"/>
+      <c r="I32" s="172"/>
+      <c r="J32" s="172"/>
+      <c r="K32" s="172"/>
     </row>
     <row r="33" spans="1:11" s="26" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="169" t="s">
+      <c r="A33" s="172" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="169"/>
-      <c r="C33" s="169"/>
-      <c r="D33" s="169"/>
-      <c r="E33" s="169"/>
-      <c r="F33" s="169"/>
-      <c r="G33" s="169"/>
-      <c r="H33" s="169"/>
-      <c r="I33" s="169"/>
-      <c r="J33" s="169"/>
-      <c r="K33" s="169"/>
+      <c r="B33" s="172"/>
+      <c r="C33" s="172"/>
+      <c r="D33" s="172"/>
+      <c r="E33" s="172"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="172"/>
+      <c r="H33" s="172"/>
+      <c r="I33" s="172"/>
+      <c r="J33" s="172"/>
+      <c r="K33" s="172"/>
     </row>
     <row r="34" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="168" t="s">
+      <c r="A34" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="168"/>
-      <c r="C34" s="168"/>
-      <c r="D34" s="168"/>
-      <c r="E34" s="168"/>
-      <c r="F34" s="168"/>
-      <c r="G34" s="168"/>
-      <c r="H34" s="168"/>
-      <c r="I34" s="168"/>
-      <c r="J34" s="168"/>
-      <c r="K34" s="168"/>
+      <c r="B34" s="171"/>
+      <c r="C34" s="171"/>
+      <c r="D34" s="171"/>
+      <c r="E34" s="171"/>
+      <c r="F34" s="171"/>
+      <c r="G34" s="171"/>
+      <c r="H34" s="171"/>
+      <c r="I34" s="171"/>
+      <c r="J34" s="171"/>
+      <c r="K34" s="171"/>
     </row>
     <row r="35" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="168" t="s">
+      <c r="A35" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="168"/>
-      <c r="C35" s="168"/>
-      <c r="D35" s="168"/>
-      <c r="E35" s="168"/>
-      <c r="F35" s="168"/>
-      <c r="G35" s="168"/>
+      <c r="B35" s="171"/>
+      <c r="C35" s="171"/>
+      <c r="D35" s="171"/>
+      <c r="E35" s="171"/>
+      <c r="F35" s="171"/>
+      <c r="G35" s="171"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="168" t="s">
+      <c r="A36" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="168"/>
-      <c r="C36" s="168"/>
-      <c r="D36" s="168"/>
-      <c r="E36" s="168"/>
-      <c r="F36" s="168"/>
-      <c r="G36" s="168"/>
+      <c r="B36" s="171"/>
+      <c r="C36" s="171"/>
+      <c r="D36" s="171"/>
+      <c r="E36" s="171"/>
+      <c r="F36" s="171"/>
+      <c r="G36" s="171"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -5575,62 +5575,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="184" t="s">
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="187" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="162" t="s">
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="165" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="164"/>
+      <c r="K2" s="167"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="162" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="188"/>
+      <c r="J3" s="165" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="164"/>
+      <c r="K3" s="167"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="185"/>
-      <c r="I4" s="185"/>
-      <c r="J4" s="162" t="s">
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="188"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="188"/>
+      <c r="J4" s="165" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="164"/>
+      <c r="K4" s="167"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="160" t="s">
+      <c r="A5" s="163" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="160"/>
-      <c r="C5" s="179"/>
-      <c r="D5" s="179"/>
-      <c r="E5" s="179"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="179"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -5644,12 +5644,12 @@
       <c r="E6" s="11"/>
       <c r="F6" s="16"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="186" t="s">
+      <c r="H6" s="189" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="186"/>
-      <c r="J6" s="186"/>
-      <c r="K6" s="186"/>
+      <c r="I6" s="189"/>
+      <c r="J6" s="189"/>
+      <c r="K6" s="189"/>
     </row>
     <row r="7" spans="1:14" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
@@ -5679,10 +5679,10 @@
       <c r="I7" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="180" t="s">
+      <c r="J7" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="181"/>
+      <c r="K7" s="184"/>
     </row>
     <row r="8" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
@@ -5696,8 +5696,8 @@
       <c r="G8" s="33"/>
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
-      <c r="J8" s="173"/>
-      <c r="K8" s="174"/>
+      <c r="J8" s="176"/>
+      <c r="K8" s="177"/>
     </row>
     <row r="9" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
@@ -5711,8 +5711,8 @@
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
-      <c r="J9" s="173"/>
-      <c r="K9" s="174"/>
+      <c r="J9" s="176"/>
+      <c r="K9" s="177"/>
     </row>
     <row r="10" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
@@ -5726,8 +5726,8 @@
       <c r="G10" s="33"/>
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
-      <c r="J10" s="175"/>
-      <c r="K10" s="176"/>
+      <c r="J10" s="178"/>
+      <c r="K10" s="179"/>
     </row>
     <row r="11" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
@@ -5741,8 +5741,8 @@
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
       <c r="I11" s="32"/>
-      <c r="J11" s="175"/>
-      <c r="K11" s="176"/>
+      <c r="J11" s="178"/>
+      <c r="K11" s="179"/>
     </row>
     <row r="12" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
@@ -5756,8 +5756,8 @@
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
       <c r="I12" s="32"/>
-      <c r="J12" s="175"/>
-      <c r="K12" s="176"/>
+      <c r="J12" s="178"/>
+      <c r="K12" s="179"/>
     </row>
     <row r="13" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
@@ -5771,14 +5771,14 @@
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
       <c r="I13" s="32"/>
-      <c r="J13" s="175"/>
-      <c r="K13" s="176"/>
+      <c r="J13" s="178"/>
+      <c r="K13" s="179"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="182" t="s">
+      <c r="A14" s="185" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="183"/>
+      <c r="B14" s="186"/>
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
@@ -5786,30 +5786,30 @@
       <c r="G14" s="35"/>
       <c r="H14" s="36"/>
       <c r="I14" s="37"/>
-      <c r="J14" s="177"/>
-      <c r="K14" s="178"/>
+      <c r="J14" s="180"/>
+      <c r="K14" s="181"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="172" t="s">
+      <c r="A16" s="175" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="172"/>
-      <c r="C16" s="172"/>
+      <c r="B16" s="175"/>
+      <c r="C16" s="175"/>
       <c r="D16" s="38"/>
-      <c r="E16" s="172" t="s">
+      <c r="E16" s="175" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="172"/>
-      <c r="G16" s="172" t="s">
+      <c r="F16" s="175"/>
+      <c r="G16" s="175" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="172"/>
-      <c r="I16" s="172" t="s">
+      <c r="H16" s="175"/>
+      <c r="I16" s="175" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="172"/>
-      <c r="K16" s="172"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="175"/>
       <c r="M16" s="39"/>
       <c r="N16" s="39"/>
     </row>
@@ -5874,48 +5874,48 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70" t="s">
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="162" t="s">
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="165" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="164"/>
+      <c r="J2" s="167"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="162" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="165" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="164"/>
+      <c r="J3" s="167"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="190"/>
-      <c r="H4" s="191"/>
-      <c r="I4" s="162" t="s">
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="192"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="165" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="164"/>
+      <c r="J4" s="167"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -5961,11 +5961,11 @@
       <c r="A8" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="187" t="s">
+      <c r="B8" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="187"/>
-      <c r="D8" s="187"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
       <c r="E8" s="42" t="s">
         <v>2</v>
       </c>
@@ -5975,174 +5975,174 @@
       <c r="G8" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="187" t="s">
+      <c r="H8" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="187"/>
-      <c r="J8" s="188"/>
+      <c r="I8" s="190"/>
+      <c r="J8" s="191"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="43">
         <v>1</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="192"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="195"/>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="43">
         <f t="shared" ref="A10:A18" si="0">+A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="192"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="195"/>
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="43">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="192"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="195"/>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="43">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="192"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="195"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="43">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="192"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="195"/>
     </row>
     <row r="14" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="43">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="192"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="195"/>
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="43">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="192"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="195"/>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="43">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="192"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="195"/>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="43">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="192"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="195"/>
     </row>
     <row r="18" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="43">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="192"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="195"/>
     </row>
     <row r="19" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44">
         <v>11</v>
       </c>
-      <c r="B19" s="193"/>
-      <c r="C19" s="193"/>
-      <c r="D19" s="193"/>
+      <c r="B19" s="196"/>
+      <c r="C19" s="196"/>
+      <c r="D19" s="196"/>
       <c r="E19" s="45"/>
       <c r="F19" s="45"/>
       <c r="G19" s="46"/>
-      <c r="H19" s="193"/>
-      <c r="I19" s="193"/>
-      <c r="J19" s="194"/>
+      <c r="H19" s="196"/>
+      <c r="I19" s="196"/>
+      <c r="J19" s="197"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -6157,42 +6157,42 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91" t="s">
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91" t="s">
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="92"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="95"/>
     </row>
     <row r="22" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="93"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="95"/>
+      <c r="A22" s="96"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="98"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -6202,9 +6202,9 @@
       <c r="A24" s="6"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -6214,9 +6214,9 @@
       <c r="A25" s="6"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -6226,9 +6226,9 @@
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="97"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>

--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho_2024/XuatKho/Thang09/XKSX_LK_2000RFID_140924.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho_2024/XuatKho/Thang09/XKSX_LK_2000RFID_140924.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BH VNET\VNET NEW\VNET\2. Báo cáo-Bàn giao\1.BaoCao\Thông tin lưu trữ\SanXuat\XuatNhapKho_2024\XuatKho\Thang09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9EC3D8-AFD6-4075-93E0-C59D2657D1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01488A1E-D074-41B6-BB38-EE756A8C7BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="170">
   <si>
     <t>STT</t>
   </si>
@@ -451,9 +451,6 @@
     <t>Xuất kho linh kiện gia công 2000 thiết bị CARD READER</t>
   </si>
   <si>
-    <t>Lô 3-2024</t>
-  </si>
-  <si>
     <t>Hà Nội, Ngày 14 Tháng 09 Năm 2024</t>
   </si>
   <si>
@@ -539,6 +536,12 @@
   </si>
   <si>
     <t>Số: PXK : 02</t>
+  </si>
+  <si>
+    <t>Lô 2-2024</t>
+  </si>
+  <si>
+    <t>Đặng Ngọc Mai</t>
   </si>
 </sst>
 </file>
@@ -3408,8 +3411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:T66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51:H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3483,11 +3486,11 @@
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
       <c r="D6" s="60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E6" s="60"/>
       <c r="F6" s="120" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G6" s="120"/>
       <c r="H6" s="120"/>
@@ -3535,7 +3538,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9" s="64" t="s">
         <v>93</v>
@@ -3554,7 +3557,7 @@
         <v>138</v>
       </c>
       <c r="H9" s="63" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -3585,7 +3588,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C11" s="64" t="s">
         <v>93</v>
@@ -3611,7 +3614,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C12" s="64" t="s">
         <v>93</v>
@@ -3634,7 +3637,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C13" s="64" t="s">
         <v>93</v>
@@ -3657,7 +3660,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C14" s="64" t="s">
         <v>93</v>
@@ -3680,7 +3683,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C15" s="64" t="s">
         <v>93</v>
@@ -3726,7 +3729,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C17" s="64" t="s">
         <v>93</v>
@@ -3772,7 +3775,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C19" s="64" t="s">
         <v>93</v>
@@ -3795,7 +3798,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="69" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C20" s="64" t="s">
         <v>93</v>
@@ -3818,7 +3821,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C21" s="64" t="s">
         <v>93</v>
@@ -3841,7 +3844,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="68" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C22" s="64" t="s">
         <v>93</v>
@@ -3864,7 +3867,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23" s="64" t="s">
         <v>93</v>
@@ -3910,7 +3913,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="69" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C25" s="64" t="s">
         <v>93</v>
@@ -3933,7 +3936,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="69" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C26" s="64" t="s">
         <v>93</v>
@@ -3956,7 +3959,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="69" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C27" s="64" t="s">
         <v>93</v>
@@ -4025,7 +4028,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C30" s="64" t="s">
         <v>93</v>
@@ -4048,7 +4051,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C31" s="64" t="s">
         <v>93</v>
@@ -4074,7 +4077,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C32" s="64" t="s">
         <v>93</v>
@@ -4097,7 +4100,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C33" s="64" t="s">
         <v>93</v>
@@ -4120,7 +4123,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C34" s="64" t="s">
         <v>93</v>
@@ -4166,7 +4169,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="69" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C36" s="64" t="s">
         <v>93</v>
@@ -4189,7 +4192,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="68" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C37" s="64" t="s">
         <v>93</v>
@@ -4212,7 +4215,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="68" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C38" s="64" t="s">
         <v>93</v>
@@ -4235,7 +4238,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="71" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C39" s="64" t="s">
         <v>93</v>
@@ -4258,7 +4261,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="71" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C40" s="64" t="s">
         <v>93</v>
@@ -4304,10 +4307,10 @@
         <v>34</v>
       </c>
       <c r="B42" s="71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C42" s="64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D42" s="70">
         <v>400</v>
@@ -4447,7 +4450,7 @@
       <c r="D53" s="109"/>
       <c r="E53" s="56"/>
       <c r="F53" s="109" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="G53" s="109"/>
       <c r="H53" s="56" t="s">
@@ -4504,10 +4507,10 @@
     <mergeCell ref="F47:G47"/>
     <mergeCell ref="F53:G53"/>
   </mergeCells>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="57" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="32" max="7" man="1"/>
+    <brk id="37" max="7" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
